--- a/Datasheets/Datasheets TS Quote.xlsx
+++ b/Datasheets/Datasheets TS Quote.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinic\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Projeto Tech Saúde\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3DD481-26A0-4182-9168-3A0E6B2DD591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F863A473-0C15-49E6-8DD2-3F1874D70B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2159F909-F51C-4FE5-AE2A-38ACBFCDF71B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2159F909-F51C-4FE5-AE2A-38ACBFCDF71B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,9 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -153,11 +156,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ [$CHF-100C]_-;\-* #,##0.00\ [$CHF-100C]_-;_-* &quot;-&quot;??\ [$CHF-100C]_-;_-@_-"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$CHF-100C]_-;\-* #,##0.00\ [$CHF-100C]_-;_-* &quot;-&quot;??\ [$CHF-100C]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000\ [$CHF-100C]_-;\-* #,##0.000\ [$CHF-100C]_-;_-* &quot;-&quot;??\ [$CHF-100C]_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +189,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -283,10 +295,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -302,19 +315,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -649,22 +667,24 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -678,7 +698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -699,7 +719,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -719,7 +739,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -740,7 +760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -760,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -777,11 +797,12 @@
         <v>28</v>
       </c>
       <c r="G6" s="15">
-        <f>(G2*G3+G4*G3)*1.0316</f>
-        <v>406.50198000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <f>(G2*G3+G4*G3)*1.0077+3.55</f>
+        <v>400.63418500000006</v>
+      </c>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -799,10 +820,11 @@
       </c>
       <c r="G7" s="10">
         <f>G6*6.4</f>
-        <v>2601.6126720000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2564.0587840000007</v>
+      </c>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -816,7 +838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -834,10 +856,10 @@
       </c>
       <c r="G9" s="16">
         <f>G7/2</f>
-        <v>1300.8063360000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1282.0293920000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -851,7 +873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -865,7 +887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -878,8 +900,9 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -892,8 +915,12 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>G2+G4</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -906,9 +933,14 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
+      <c r="F14" s="17">
+        <f>F13*G3</f>
+        <v>394.05</v>
+      </c>
       <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -921,9 +953,14 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
+      <c r="F15" s="17">
+        <f>F14-G6</f>
+        <v>-6.5841850000000477</v>
+      </c>
+      <c r="H15" s="17"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -937,7 +974,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -951,7 +988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -966,7 +1003,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -980,7 +1017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -993,8 +1030,12 @@
       <c r="D20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="17">
+        <f>0.77/100*F14+3.55</f>
+        <v>6.5841849999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1007,8 +1048,12 @@
       <c r="D21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="19">
+        <f>F20/F14</f>
+        <v>1.6709009009009009E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1021,8 +1066,9 @@
       <c r="D22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1036,7 +1082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1050,7 +1096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
